--- a/xlsx/俄羅斯帝國_intext.xlsx
+++ b/xlsx/俄羅斯帝國_intext.xlsx
@@ -29,7 +29,7 @@
     <t>1918年俄语正写法改革</t>
   </si>
   <si>
-    <t>政策_政策_美國_俄羅斯帝國</t>
+    <t>体育运动_体育运动_伊朗_俄羅斯帝國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BD%97%E6%96%AF%E6%B2%99%E7%9A%87%E5%9B%BD</t>
